--- a/Required_Pieces.xlsx
+++ b/Required_Pieces.xlsx
@@ -1,20 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23530"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24131"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Unity\Projects\EtG Development\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{41C42FEF-1C26-466E-B238-4BA19C3B219D}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4439997C-2DFB-45DD-8CA5-A77BB6C947D0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{D593FF75-6177-4E51-8B01-D01C3053B7A8}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="2" xr2:uid="{D593FF75-6177-4E51-8B01-D01C3053B7A8}"/>
   </bookViews>
   <sheets>
     <sheet name="Permutations" sheetId="1" r:id="rId1"/>
     <sheet name="Unique Shapes (Expanded)" sheetId="2" r:id="rId2"/>
+    <sheet name="Inactive Neighbors Check" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -26,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="619" uniqueCount="63">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="646" uniqueCount="79">
   <si>
     <t>x</t>
   </si>
@@ -215,6 +216,54 @@
   </si>
   <si>
     <t>Note: walls bordering the 3 inactive areas, but still has some room for player to move around in</t>
+  </si>
+  <si>
+    <t>5_f</t>
+  </si>
+  <si>
+    <t>9_f</t>
+  </si>
+  <si>
+    <t>13_f</t>
+  </si>
+  <si>
+    <t>15_f</t>
+  </si>
+  <si>
+    <t>19_f</t>
+  </si>
+  <si>
+    <t>21_f</t>
+  </si>
+  <si>
+    <t>24_f</t>
+  </si>
+  <si>
+    <t>27_f</t>
+  </si>
+  <si>
+    <t>14_f</t>
+  </si>
+  <si>
+    <t>20_f</t>
+  </si>
+  <si>
+    <t>23_f</t>
+  </si>
+  <si>
+    <t>28_f</t>
+  </si>
+  <si>
+    <t>7_f</t>
+  </si>
+  <si>
+    <t>North Exp</t>
+  </si>
+  <si>
+    <t>North Act</t>
+  </si>
+  <si>
+    <t>11 14 14_f have top row blocked</t>
   </si>
 </sst>
 </file>
@@ -243,7 +292,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="9">
+  <fills count="10">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -292,6 +341,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF0000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="2">
     <border>
@@ -320,7 +375,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="22">
+  <cellXfs count="24">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
@@ -359,6 +414,12 @@
     <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="8" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -675,12 +736,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1FF49452-D2E7-48B4-B56B-3032190D1445}">
   <dimension ref="A2:AG232"/>
   <sheetViews>
-    <sheetView topLeftCell="A69" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="H71" sqref="H71"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="V25" sqref="V25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
+    <col min="1" max="1" width="28.140625" customWidth="1"/>
     <col min="3" max="28" width="6.140625" style="4" customWidth="1"/>
     <col min="29" max="29" width="5.7109375" style="4" customWidth="1"/>
     <col min="30" max="33" width="5.7109375" customWidth="1"/>
@@ -3763,8 +3825,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A4EB20AA-5C79-4234-B340-A0FA8AFD9F51}">
   <dimension ref="A1:P227"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="P231" sqref="P231"/>
+    <sheetView topLeftCell="A85" workbookViewId="0">
+      <selection activeCell="E153" sqref="E153"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6289,4 +6351,195 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DE07C483-88AD-4EA6-B8B7-8DEF21CEBA07}">
+  <dimension ref="B2:T11"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="N20" sqref="N20"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="3" max="19" width="9.140625" style="4"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="B2" t="s">
+        <v>76</v>
+      </c>
+      <c r="C2" s="4">
+        <v>5</v>
+      </c>
+      <c r="D2" s="4" t="s">
+        <v>63</v>
+      </c>
+      <c r="E2" s="4">
+        <v>9</v>
+      </c>
+      <c r="F2" s="4" t="s">
+        <v>64</v>
+      </c>
+      <c r="G2" s="4">
+        <v>13</v>
+      </c>
+      <c r="H2" s="4" t="s">
+        <v>65</v>
+      </c>
+      <c r="I2" s="4">
+        <v>15</v>
+      </c>
+      <c r="J2" s="4" t="s">
+        <v>66</v>
+      </c>
+      <c r="K2" s="4">
+        <v>19</v>
+      </c>
+      <c r="L2" s="4" t="s">
+        <v>67</v>
+      </c>
+      <c r="M2" s="4">
+        <v>21</v>
+      </c>
+      <c r="N2" s="4" t="s">
+        <v>68</v>
+      </c>
+      <c r="O2" s="4">
+        <v>24</v>
+      </c>
+      <c r="P2" s="4" t="s">
+        <v>69</v>
+      </c>
+      <c r="Q2" s="4">
+        <v>27</v>
+      </c>
+      <c r="R2" s="4" t="s">
+        <v>70</v>
+      </c>
+      <c r="S2" s="4">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="4" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="B4" t="s">
+        <v>77</v>
+      </c>
+      <c r="C4" s="22">
+        <v>11</v>
+      </c>
+      <c r="D4" s="22">
+        <v>14</v>
+      </c>
+      <c r="E4" s="22" t="s">
+        <v>71</v>
+      </c>
+      <c r="F4" s="4">
+        <v>15</v>
+      </c>
+      <c r="G4" s="22">
+        <v>16</v>
+      </c>
+      <c r="H4" s="22" t="s">
+        <v>72</v>
+      </c>
+      <c r="I4" s="4" t="s">
+        <v>68</v>
+      </c>
+      <c r="J4" s="22">
+        <v>23</v>
+      </c>
+      <c r="K4" s="22" t="s">
+        <v>73</v>
+      </c>
+      <c r="L4" s="4">
+        <v>24</v>
+      </c>
+      <c r="M4" s="22">
+        <v>25</v>
+      </c>
+      <c r="N4" s="4">
+        <v>27</v>
+      </c>
+      <c r="O4" s="4">
+        <v>28</v>
+      </c>
+      <c r="P4" s="4" t="s">
+        <v>74</v>
+      </c>
+      <c r="Q4" s="22">
+        <v>3</v>
+      </c>
+      <c r="R4" s="22" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="7" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="C7" s="4" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="11" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="B11" t="s">
+        <v>77</v>
+      </c>
+      <c r="C11" s="23">
+        <v>13</v>
+      </c>
+      <c r="D11" s="23" t="s">
+        <v>65</v>
+      </c>
+      <c r="E11" s="23">
+        <v>15</v>
+      </c>
+      <c r="F11" s="23" t="s">
+        <v>66</v>
+      </c>
+      <c r="G11" s="23">
+        <v>19</v>
+      </c>
+      <c r="H11" s="23" t="s">
+        <v>67</v>
+      </c>
+      <c r="I11" s="23">
+        <v>21</v>
+      </c>
+      <c r="J11" s="23" t="s">
+        <v>68</v>
+      </c>
+      <c r="K11" s="23">
+        <v>24</v>
+      </c>
+      <c r="L11" s="23" t="s">
+        <v>69</v>
+      </c>
+      <c r="M11" s="23">
+        <v>27</v>
+      </c>
+      <c r="N11" s="23" t="s">
+        <v>70</v>
+      </c>
+      <c r="O11" s="23">
+        <v>28</v>
+      </c>
+      <c r="P11" s="23" t="s">
+        <v>74</v>
+      </c>
+      <c r="Q11" s="23">
+        <v>5</v>
+      </c>
+      <c r="R11" s="23" t="s">
+        <v>63</v>
+      </c>
+      <c r="S11" s="23">
+        <v>9</v>
+      </c>
+      <c r="T11" s="10" t="s">
+        <v>64</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>